--- a/converter/city_data/HsinChu/新竹縣政府警察局固定式科學儀器執法設備設置地點一覽表.xlsx
+++ b/converter/city_data/HsinChu/新竹縣政府警察局固定式科學儀器執法設備設置地點一覽表.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F83"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,7 +469,7 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>新竹縣政府警察局「固定式科學儀器執法設備」設置地點一覽表
-114.5.6</t>
+114.8.25</t>
         </is>
       </c>
       <c r="B2" t="inlineStr"/>
@@ -805,7 +805,8 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>竹北市自強北路與十興路口</t>
+          <t>竹北市光明六路東二段與高鐵
+七路口</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -815,13 +816,16 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>測速</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>50</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
+          <t>車輛不禮讓行人、違規迴轉</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>路口多功能科技執法新
+增</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -829,8 +833,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>竹北市西濱路一段與西濱路二
-段 265 巷口(台61線)</t>
+          <t>竹北市自強北路與十興路口</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -844,7 +847,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -854,7 +857,8 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>竹北市東興路二段316號前</t>
+          <t>竹北市西濱路一段與西濱路二
+段 265 巷口(台61線)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -868,7 +872,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -878,7 +882,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>竹北市興隆路與莊敬南路口</t>
+          <t>竹北市東興路二段316號前</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -888,11 +892,11 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>闖紅燈、測速</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F18" t="inlineStr"/>
     </row>
@@ -902,7 +906,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>竹北市東興路二段198號前</t>
+          <t>竹北市興隆路與莊敬南路口</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -912,11 +916,11 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、測速</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F19" t="inlineStr"/>
     </row>
@@ -926,26 +930,23 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>竹東鎮東林路與北興路一段路
-口</t>
+          <t>竹北市東興路二段198號前</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>竹東分局</t>
+          <t>竹北分局</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>闖紅燈、車輛不禮讓行人</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>路口多功能科技執法</t>
-        </is>
-      </c>
+          <t>測速</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>60</v>
+      </c>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -953,7 +954,8 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>竹東鎮中興路一段94-2號</t>
+          <t>竹東鎮東林路與北興路一段路
+口</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -963,13 +965,15 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>測速</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>50</v>
-      </c>
-      <c r="F21" t="inlineStr"/>
+          <t>闖紅燈、車輛不禮讓行人</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>路口多功能科技執法</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -977,7 +981,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>竹東鎮中興路三段與學府路口</t>
+          <t>竹東鎮中興路一段94-2號</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -987,16 +991,13 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>闖紅燈、未依標誌標線號誌
-行駛</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>路口多功能科技執法</t>
-        </is>
-      </c>
+          <t>測速</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>50</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1004,8 +1005,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>竹東鎮中豐路三段老爺山莊路
-口北上</t>
+          <t>竹東鎮中興路三段與學府路口</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1015,13 +1015,16 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>測速</t>
-        </is>
-      </c>
-      <c r="E23" t="n">
-        <v>50</v>
-      </c>
-      <c r="F23" t="inlineStr"/>
+          <t>闖紅燈、未依標誌標線號誌
+行駛</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>路口多功能科技執法</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1029,7 +1032,8 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>竹東鎮中豐路與台68線路口</t>
+          <t>竹東鎮中豐路三段老爺山莊路
+口北上</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1039,18 +1043,13 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>闖紅燈、測速、未依標誌標
-線號誌行駛</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="E24" t="n">
         <v>50</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>路口多功能科技執法</t>
-        </is>
-      </c>
+      <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1058,7 +1057,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>竹東鎮公道路616號前</t>
+          <t>竹東鎮中豐路與台68線路口</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1068,13 +1067,18 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、測速、未依標誌標
+線號誌行駛</t>
         </is>
       </c>
       <c r="E25" t="n">
         <v>50</v>
       </c>
-      <c r="F25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>路口多功能科技執法</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1082,8 +1086,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>竹東鎮台68線(西向東)12.3公
-里處</t>
+          <t>竹東鎮公道路616號前</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1096,17 +1099,10 @@
           <t>測速</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>大車80/小
-車90</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>大車係指20噸以上大貨車</t>
-        </is>
-      </c>
+      <c r="E26" t="n">
+        <v>50</v>
+      </c>
+      <c r="F26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1114,8 +1110,8 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>竹東鎮台68線(東向西)12公里
-處</t>
+          <t>竹東鎮台68線(西向東)12.3公
+里處</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1146,8 +1142,8 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>竹東鎮台68線竹東匝道口與北
-興路三段</t>
+          <t>竹東鎮台68線(東向西)12公里
+處</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1160,10 +1156,17 @@
           <t>測速</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>50</v>
-      </c>
-      <c r="F28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>大車80/小
+車90</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>大車係指20噸以上大貨車</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1171,8 +1174,8 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>峨眉鄉中豐公路中興中盛村路
-口(台3線83.5k)</t>
+          <t>竹東鎮台68線竹東匝道口與北
+興路三段</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1186,7 +1189,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F29" t="inlineStr"/>
     </row>
@@ -1196,8 +1199,8 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>峨眉鄉台3線89.4K
-(往峨眉)</t>
+          <t>峨眉鄉中豐公路中興中盛村路
+口(台3線83.5k)</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1221,8 +1224,8 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>峨眉鄉台3線89.6K
-(往竹東)</t>
+          <t>峨眉鄉台3線89.4K
+(往峨眉)</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1246,7 +1249,8 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>峨眉鄉台3線91.2K</t>
+          <t>峨眉鄉台3線89.6K
+(往竹東)</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1270,7 +1274,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>寶山鄉三峰路二段8號前</t>
+          <t>峨眉鄉台3線91.2K</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1284,7 +1288,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F33" t="inlineStr"/>
     </row>
@@ -1294,8 +1298,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>寶山鄉雙林路一段
-(竹47-1線4.1K)</t>
+          <t>寶山鄉三峰路二段8號前</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1309,7 +1312,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F34" t="inlineStr"/>
     </row>
@@ -1319,7 +1322,8 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>寶山鄉雙園路二段90巷5號前</t>
+          <t>寶山鄉雙林路一段
+(竹47-1線4.1K)</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1343,7 +1347,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>寶山鄉寶山路一段228號旁</t>
+          <t>寶山鄉雙園路二段90巷5號前</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1357,7 +1361,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F36" t="inlineStr"/>
     </row>
@@ -1367,8 +1371,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>寶山鄉寶山路二段
-(竹83線0.8K)</t>
+          <t>寶山鄉寶山路一段228號旁</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1392,12 +1395,13 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>新埔鎮文山路亞東段1008號前</t>
+          <t>寶山鄉寶山路二段
+(竹83線0.8K)</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>新埔分局</t>
+          <t>竹東分局</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1406,7 +1410,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F38" t="inlineStr"/>
     </row>
@@ -1416,7 +1420,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>新埔鎮文山路亞東段369號</t>
+          <t>新埔鎮文山路亞東段1008號前</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1440,8 +1444,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>新埔鎮新關路五埔段與1046巷
-口</t>
+          <t>新埔鎮文山路亞東段369號</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1455,7 +1458,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F40" t="inlineStr"/>
     </row>
@@ -1465,8 +1468,8 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>新埔鎮楊新路楊新路一段322號
-前</t>
+          <t>新埔鎮新關路五埔段與1046巷
+口</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1480,7 +1483,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F41" t="inlineStr"/>
     </row>
@@ -1490,7 +1493,8 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>新埔鎮褒忠路與文山路口</t>
+          <t>新埔鎮楊新路楊新路一段322號
+前</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1500,18 +1504,13 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>闖紅燈、測速、未依標誌標
-線號誌行駛</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>40</v>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>路口多功能科技執法</t>
-        </is>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1519,7 +1518,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>關西鎮正義路與中山路口</t>
+          <t>新埔鎮褒忠路與文山路口</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1529,10 +1528,13 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>闖紅燈、車輛不禮讓行人</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
+          <t>闖紅燈、測速、未依標誌標
+線號誌行駛</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>40</v>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>路口多功能科技執法</t>
@@ -1545,7 +1547,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>關西鎮大同茅仔埔5鄰35號旁</t>
+          <t>關西鎮正義路與中山路口</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1555,13 +1557,15 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>測速</t>
-        </is>
-      </c>
-      <c r="E44" t="n">
-        <v>50</v>
-      </c>
-      <c r="F44" t="inlineStr"/>
+          <t>闖紅燈、車輛不禮讓行人</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>路口多功能科技執法</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1569,7 +1573,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>關西鎮中豐公路牛欄河6鄰63號</t>
+          <t>關西鎮大同茅仔埔5鄰35號旁</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1583,7 +1587,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F45" t="inlineStr"/>
     </row>
@@ -1593,8 +1597,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>關西鎮中豐公路與十六張路口
-前</t>
+          <t>關西鎮中豐公路牛欄河6鄰63號</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1608,7 +1611,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F46" t="inlineStr"/>
     </row>
@@ -1618,7 +1621,8 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>關西鎮中豐公路與中山東路口</t>
+          <t>關西鎮中豐公路與十六張路口
+前</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1628,7 +1632,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>闖紅燈、測速</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1642,7 +1646,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>關西鎮石岡子路736號旁</t>
+          <t>關西鎮中豐公路與中山東路口</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1652,11 +1656,11 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、測速</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F48" t="inlineStr"/>
     </row>
@@ -1666,7 +1670,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>關西鎮台3線62.1公里處</t>
+          <t>關西鎮石岡子路736號旁</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1680,7 +1684,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F49" t="inlineStr"/>
     </row>
@@ -1690,12 +1694,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>湖口鄉八德路一段35號前</t>
+          <t>關西鎮台3線62.1公里處</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>新湖分局</t>
+          <t>新埔分局</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1704,7 +1708,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F50" t="inlineStr"/>
     </row>
@@ -1714,8 +1718,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>湖口鄉八德路一段與中山路一
-段口南下</t>
+          <t>湖口鄉八德路一段35號前</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1739,7 +1742,8 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>湖口鄉八德路二段579號前</t>
+          <t>湖口鄉八德路一段與中山路一
+段口南下</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1763,8 +1767,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>湖口鄉中山路一段與忠義路口
-南下</t>
+          <t>湖口鄉八德路二段579號前</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1778,7 +1781,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F53" t="inlineStr"/>
     </row>
@@ -1788,7 +1791,8 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>湖口鄉中山路一段與達生路口</t>
+          <t>湖口鄉中山路一段與忠義路口
+南下</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1798,18 +1802,13 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>闖紅燈、測速、機車未依規
-定兩段式左轉</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="E54" t="n">
         <v>50</v>
       </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>路口多功能科技執法</t>
-        </is>
-      </c>
+      <c r="F54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -1817,7 +1816,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>湖口鄉成功路與三元路路口</t>
+          <t>湖口鄉中山路一段與達生路口</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1827,13 +1826,18 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、測速、機車未依規
+定兩段式左轉</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>60</v>
-      </c>
-      <c r="F55" t="inlineStr"/>
+        <v>50</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>路口多功能科技執法</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1841,7 +1845,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>湖口鄉新興路與中華路口</t>
+          <t>湖口鄉成功路與三元路路口</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1851,18 +1855,13 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>闖紅燈、測速、未依標誌標
-線號誌行駛、機車未兩段式</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="E56" t="n">
         <v>60</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>路口多功能科技執法</t>
-        </is>
-      </c>
+      <c r="F56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -1870,8 +1869,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>新豐鄉新興路與建興路一段路
-口</t>
+          <t>湖口鄉新興路與中華路口</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1881,10 +1879,13 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>闖紅燈、車輛不禮讓行人</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
+          <t>闖紅燈、測速、未依標誌標
+線號誌行駛、機車未兩段式</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>60</v>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>路口多功能科技執法</t>
@@ -1897,7 +1898,8 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>新豐鄉康樂路一段與明新街口</t>
+          <t>新豐鄉新興路與建興路一段路
+口</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1907,7 +1909,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>未保持路口淨空</t>
+          <t>闖紅燈、車輛不禮讓行人</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -1923,7 +1925,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>新豐鄉新興路與康樂路一段口</t>
+          <t>新豐鄉康樂路一段與明新街口</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1933,8 +1935,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>闖紅燈、未依標誌標線號誌
-行駛</t>
+          <t>未保持路口淨空</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -1950,8 +1951,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>新豐鄉濱海公路埔和村189號之
-1南下</t>
+          <t>新豐鄉新興路與康樂路一段口</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1961,13 +1961,16 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>測速</t>
-        </is>
-      </c>
-      <c r="E60" t="n">
-        <v>60</v>
-      </c>
-      <c r="F60" t="inlineStr"/>
+          <t>闖紅燈、未依標誌標線號誌
+行駛</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>路口多功能科技執法</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -1975,7 +1978,8 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>新豐鄉台15線62.8公里處</t>
+          <t>新豐鄉濱海公路埔和村189號之
+1南下</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1991,11 +1995,7 @@
       <c r="E61" t="n">
         <v>60</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>新增</t>
-        </is>
-      </c>
+      <c r="F61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2003,55 +2003,48 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
+          <t>新豐鄉台15線62.8公里處</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>新湖分局</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>測速</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>60</v>
+      </c>
+      <c r="F62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
           <t>新豐鄉濱海公路與竹1-1線口
 (台15線64.4K)</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="C63" t="inlineStr">
         <is>
           <t>新湖分局</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>測速</t>
-        </is>
-      </c>
-      <c r="E62" t="n">
-        <v>60</v>
-      </c>
-      <c r="F62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="n">
-        <v>60</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>新豐鄉台61線北上60.1公里處</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>新湖分局</t>
-        </is>
-      </c>
       <c r="D63" t="inlineStr">
         <is>
           <t>測速</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>大車80/小
-車90</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>大車係指20噸以上大貨車</t>
-        </is>
-      </c>
+      <c r="E63" t="n">
+        <v>60</v>
+      </c>
+      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2059,13 +2052,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>竹120線11.5K竹林交流道北上
-匝道口</t>
+          <t>新豐鄉台61線北上60.1公里處</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>橫山分局</t>
+          <t>新湖分局</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2073,10 +2065,17 @@
           <t>測速</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>60</v>
-      </c>
-      <c r="F64" t="inlineStr"/>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>大車80/小
+車90</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>大車係指20噸以上大貨車</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2084,7 +2083,8 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>芎林鄉富林路三段與光明路口</t>
+          <t>竹120線11.5K竹林交流道北上
+匝道口</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2108,7 +2108,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>芎林鄉文德路6號前</t>
+          <t>芎林鄉富林路三段與光明路口</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2132,7 +2132,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>芎林鄉文德路259號旁</t>
+          <t>芎林鄉文德路6號前</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2146,13 +2146,9 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>50</v>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>新增</t>
-        </is>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2160,7 +2156,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>芎林鄉富林路一段518前</t>
+          <t>芎林鄉文德路259號旁</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2174,7 +2170,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="F68" t="inlineStr"/>
     </row>
@@ -2184,7 +2180,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>橫山鄉中豐路一段與站前街口</t>
+          <t>芎林鄉富林路一段518前</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2194,7 +2190,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>闖紅燈、測速</t>
+          <t>測速</t>
         </is>
       </c>
       <c r="E69" t="n">
@@ -2208,7 +2204,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>橫山鄉中豐路三段139號前</t>
+          <t>橫山鄉中豐路一段與站前街口</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2218,11 +2214,11 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>測速</t>
+          <t>闖紅燈、測速</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F70" t="inlineStr"/>
     </row>
@@ -2232,42 +2228,53 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
+          <t>橫山鄉中豐路三段139號前</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>橫山分局</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>測速</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>50</v>
+      </c>
+      <c r="F71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>69</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
           <t>橫山鄉中豐路與中豐路二段12
 巷口</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="C72" t="inlineStr">
         <is>
           <t>橫山分局</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>測速</t>
-        </is>
-      </c>
-      <c r="E71" t="n">
-        <v>60</v>
-      </c>
-      <c r="F71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>本局取締項目列有闖紅燈之地點皆包含越線。</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>測速</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>60</v>
+      </c>
       <c r="F72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>區間平均速率科技執法設備設置地點
-114.5.6</t>
+          <t>本局取締項目列有闖紅燈之地點皆包含越線。</t>
         </is>
       </c>
       <c r="B73" t="inlineStr"/>
@@ -2279,260 +2286,301 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>區間平均速率科技執法設備設置地點
+114.8.25</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr"/>
+      <c r="C74" t="inlineStr"/>
+      <c r="D74" t="inlineStr"/>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>編號</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>設置地點</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>轄區分局</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>取締項目</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>速限</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>偵測長度</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="n">
+    <row r="76">
+      <c r="A76" t="n">
         <v>1</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B76" t="inlineStr">
         <is>
           <t>台15線鳳鼻尾隧道
 (北向南)</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="C76" t="inlineStr">
         <is>
           <t>新湖分局</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>超速</t>
         </is>
       </c>
-      <c r="E75" t="n">
-        <v>60</v>
-      </c>
-      <c r="F75" t="inlineStr">
+      <c r="E76" t="n">
+        <v>60</v>
+      </c>
+      <c r="F76" t="inlineStr">
         <is>
           <t>2197.7公尺</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="n">
+    <row r="77">
+      <c r="A77" t="n">
         <v>2</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B77" t="inlineStr">
         <is>
           <t>台15線鳳鼻尾隧道
 (南向北)</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="C77" t="inlineStr">
         <is>
           <t>新湖分局</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>超速</t>
         </is>
       </c>
-      <c r="E76" t="n">
-        <v>60</v>
-      </c>
-      <c r="F76" t="inlineStr">
+      <c r="E77" t="n">
+        <v>60</v>
+      </c>
+      <c r="F77" t="inlineStr">
         <is>
           <t>2175.1公尺</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="n">
+    <row r="78">
+      <c r="A78" t="n">
         <v>3</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>台3線82.2K至84.3K
 (北向南)</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>竹東分局</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>超速</t>
         </is>
       </c>
-      <c r="E77" t="n">
-        <v>60</v>
-      </c>
-      <c r="F77" t="inlineStr">
+      <c r="E78" t="n">
+        <v>60</v>
+      </c>
+      <c r="F78" t="inlineStr">
         <is>
           <t>2107.88公尺</t>
         </is>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" t="n">
+    <row r="79">
+      <c r="A79" t="n">
         <v>4</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>台3線84.3K至82.2K
 (南向北)</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>竹東分局</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
+      <c r="D79" t="inlineStr">
         <is>
           <t>超速</t>
         </is>
       </c>
-      <c r="E78" t="n">
-        <v>60</v>
-      </c>
-      <c r="F78" t="inlineStr">
+      <c r="E79" t="n">
+        <v>60</v>
+      </c>
+      <c r="F79" t="inlineStr">
         <is>
           <t>2103.81公尺</t>
         </is>
       </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>違規停車自動執法設備設置地點
-114.5.6</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>違規停車自動執法設備設置地點
+114.8.25</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr"/>
+      <c r="C80" t="inlineStr"/>
+      <c r="D80" t="inlineStr"/>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
           <t>編號</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>設置地點</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>轄區分局</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>取締項目</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>備註</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="n">
+      <c r="F81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
         <v>1</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B82" t="inlineStr">
         <is>
           <t>新竹高鐵站四號出口前引道</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="C82" t="inlineStr">
         <is>
           <t>竹北分局</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="D82" t="inlineStr">
         <is>
           <t>違規（臨時）停車、違規上
 客、違規攬客</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="n">
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
         <v>2</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>竹北市自強南路路口南往北
 (文興路至復興五街間)</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>竹北分局</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>違規（臨時）停車</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="n">
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
         <v>3</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>竹北市高鐵七路北往南
+(光明六路東二段與高鐵東一
+路間)</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>竹北分局</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>違規（臨時）停車</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>新增</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>4</v>
+      </c>
+      <c r="B85" t="inlineStr">
         <is>
           <t>竹東鎮中興路三段北往南
 (173-195號間)</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>竹東分局</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>違規（臨時）停車</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
